--- a/biology/Médecine/Artère_gonadique/Artère_gonadique.xlsx
+++ b/biology/Médecine/Artère_gonadique/Artère_gonadique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_gonadique</t>
+          <t>Artère_gonadique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères gonadiques droite et gauche sont des branches de l'aorte abdominale vascularisant les gonades. Ce sont des vaisseaux de longueur conséquente qui émergent du devant de l’aorte, un peu au-dessous des artères rénales.
 L’artère gonadique prend le nom d’artère testiculaire chez le mâle, et d’artère ovarique chez la femelle.
